--- a/rtss-pre1917/src/main/resources/ugvi/1903.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1903.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BOOKS\демография СССР и РСФСР\1897-1913\Отчет о состоянии народного здравия\таблицы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D5AA57-EC11-4A9B-94C7-5D57FDED8B6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89E15BB-FA4D-4E12-A2E3-DDEAA9CDD641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="1950" windowWidth="32505" windowHeight="21630" activeTab="1" xr2:uid="{8C363053-6920-4926-BDFA-AB7886F0B449}"/>
+    <workbookView xWindow="6495" yWindow="1950" windowWidth="16695" windowHeight="21630" activeTab="1" xr2:uid="{8C363053-6920-4926-BDFA-AB7886F0B449}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -298,9 +298,6 @@
     <t xml:space="preserve">Еалишск&amp;я </t>
   </si>
   <si>
-    <t>Еьлецкая</t>
-  </si>
-  <si>
     <t>Ловшинская</t>
   </si>
   <si>
@@ -430,9 +427,6 @@
     <t xml:space="preserve">Итого на Кавказе </t>
   </si>
   <si>
-    <t xml:space="preserve">Амурмская </t>
-  </si>
-  <si>
     <t>Енисейская</t>
   </si>
   <si>
@@ -503,6 +497,12 @@
   </si>
   <si>
     <t xml:space="preserve">Закаспийская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Амурская </t>
+  </si>
+  <si>
+    <t>Келецкая</t>
   </si>
 </sst>
 </file>
@@ -1929,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127F712A-7A6A-48CE-8991-7582978E471A}">
   <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B14" s="3">
         <v>24988319</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="B18" s="3">
         <v>997057</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="3">
         <v>679220</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="3">
         <v>1380777</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="3">
         <v>1657506</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="3">
         <v>715411</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="3">
         <v>1073619</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="3">
         <v>612410</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="3">
         <v>925304</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="3">
         <v>11485187</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="3">
         <v>700578</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B28" s="3">
         <v>1885600</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" s="3">
         <v>445394</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="3">
         <v>2531572</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="3">
         <v>1547347</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B41" s="3">
         <v>1804135</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B42" s="3">
         <v>1179250</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B43" s="3">
         <v>1812948</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" s="3">
         <v>1238767</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53" s="3">
         <v>791933</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54" s="3">
         <v>1336272</v>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B58" s="3">
         <v>1578942</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B59" s="3">
         <v>67752</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B60" s="3">
         <v>3259973</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B61" s="3">
         <v>2153527</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B63" s="3">
         <v>2641186</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B64" s="3">
         <v>2884359</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B66" s="3">
         <v>99002</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B67" s="3">
         <v>477432</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B69" s="3">
         <v>1315471</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B70" s="3">
         <v>76620616</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B71" s="3">
         <v>2779705</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B72" s="3">
         <v>118405393</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B73" s="3">
         <v>1015833</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B74" s="3">
         <v>181591</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B75" s="3">
         <v>649908</v>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B76" s="3">
         <v>921864</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B77" s="3">
         <v>304193</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B78" s="3">
         <v>2165493</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B79" s="3">
         <v>854245</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B80" s="3">
         <v>1024079</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B81" s="3">
         <v>980924</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B82" s="3">
         <v>994575</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B83" s="3">
         <v>93864</v>
@@ -3104,7 +3104,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B84" s="3">
         <v>816900</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B85" s="3">
         <v>9983469</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="B86" s="3">
         <v>124271</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B87" s="3">
         <v>721218</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B88" s="3">
         <v>670102</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B89" s="3">
         <v>574936</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B90" s="3">
         <v>330204</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B91" s="3">
         <v>1653515</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B92" s="3">
         <v>2346222</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B93" s="3">
         <v>271651</v>
@@ -3244,21 +3244,21 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B94" s="3">
         <v>36695</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B95" s="3">
         <v>6730814</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B96" s="3">
         <v>832517</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B97" s="3">
         <v>409097</v>
@@ -3300,21 +3300,21 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B98" s="3">
         <v>986554</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B99" s="3">
         <v>786963</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B100" s="3">
         <v>1019634</v>
@@ -3342,21 +3342,21 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B101" s="3">
         <v>1628324</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B102" s="3">
         <v>534898</v>
@@ -3370,7 +3370,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B103" s="3">
         <v>719320</v>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B104" s="3">
         <v>1761202</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B105" s="3">
         <v>3678509</v>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B106" s="3">
         <v>25392792</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B107" s="3">
         <v>143798185</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1903.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1903.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89E15BB-FA4D-4E12-A2E3-DDEAA9CDD641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9058288C-947B-4240-BB7E-E94A5592A427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="1950" windowWidth="16695" windowHeight="21630" activeTab="1" xr2:uid="{8C363053-6920-4926-BDFA-AB7886F0B449}"/>
+    <workbookView xWindow="26400" yWindow="1365" windowWidth="9570" windowHeight="21630" activeTab="1" xr2:uid="{8C363053-6920-4926-BDFA-AB7886F0B449}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1929,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127F712A-7A6A-48CE-8991-7582978E471A}">
   <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3401,7 +3401,7 @@
         <v>148</v>
       </c>
       <c r="B105" s="3">
-        <v>3678509</v>
+        <v>8678509</v>
       </c>
       <c r="C105" s="3">
         <v>172306</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1903.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1903.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9058288C-947B-4240-BB7E-E94A5592A427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DDEC92-D448-4BD2-9D98-A29ED9A10995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26400" yWindow="1365" windowWidth="9570" windowHeight="21630" activeTab="1" xr2:uid="{8C363053-6920-4926-BDFA-AB7886F0B449}"/>
+    <workbookView xWindow="3255" yWindow="1770" windowWidth="18495" windowHeight="21630" activeTab="1" xr2:uid="{8C363053-6920-4926-BDFA-AB7886F0B449}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1930,7 +1930,7 @@
   <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3264,7 +3264,7 @@
         <v>6730814</v>
       </c>
       <c r="C95" s="3">
-        <v>384900</v>
+        <v>334906</v>
       </c>
       <c r="D95" s="3">
         <v>189955</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1903.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1903.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DDEC92-D448-4BD2-9D98-A29ED9A10995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDCA796-92F5-46C9-AE8C-2E05EBD4EADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="1770" windowWidth="18495" windowHeight="21630" activeTab="1" xr2:uid="{8C363053-6920-4926-BDFA-AB7886F0B449}"/>
+    <workbookView xWindow="1695" yWindow="1350" windowWidth="18495" windowHeight="22125" activeTab="1" xr2:uid="{8C363053-6920-4926-BDFA-AB7886F0B449}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,11 +549,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1929,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127F712A-7A6A-48CE-8991-7582978E471A}">
   <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,21 +1943,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="3">
@@ -1969,7 +1971,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="3">
@@ -1983,7 +1985,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="3">
@@ -1997,7 +1999,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="3">
@@ -2011,7 +2013,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="3">
@@ -2025,7 +2027,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3">
@@ -2039,7 +2041,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3">
@@ -2053,7 +2055,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3">
@@ -2067,7 +2069,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3">
@@ -2081,7 +2083,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B11" s="3">
@@ -2095,7 +2097,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3">
@@ -2109,7 +2111,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3">
@@ -2123,21 +2125,21 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B14" s="3">
         <v>24988319</v>
       </c>
       <c r="C14" s="3">
-        <v>1954382</v>
+        <v>1054382</v>
       </c>
       <c r="D14" s="3">
         <v>634977</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3">
@@ -2151,7 +2153,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B16" s="3">
@@ -2165,7 +2167,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B17" s="3">
@@ -2179,7 +2181,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B18" s="3">
@@ -2193,7 +2195,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B19" s="3">
@@ -2207,7 +2209,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B20" s="3">
@@ -2221,7 +2223,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B21" s="3">
@@ -2235,21 +2237,21 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B22" s="3">
         <v>715411</v>
       </c>
       <c r="C22" s="3">
-        <v>31708</v>
+        <v>21708</v>
       </c>
       <c r="D22" s="3">
         <v>14559</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B23" s="3">
@@ -2263,7 +2265,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B24" s="3">
@@ -2277,7 +2279,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B25" s="3">
@@ -2291,21 +2293,21 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B26" s="3">
         <v>11485187</v>
       </c>
       <c r="C26" s="3">
-        <v>449984</v>
+        <v>440984</v>
       </c>
       <c r="D26" s="3">
         <v>255370</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B27" s="3">
@@ -2319,7 +2321,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B28" s="3">
@@ -2333,7 +2335,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B29" s="3">
@@ -2347,7 +2349,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B30" s="3">
@@ -2361,7 +2363,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="3">
@@ -2375,7 +2377,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="3">
@@ -2389,7 +2391,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="3">
@@ -2403,7 +2405,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="3">
@@ -2417,7 +2419,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="3">
@@ -2431,7 +2433,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="3">
@@ -2445,7 +2447,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="3">
@@ -2459,7 +2461,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="3">
@@ -2473,7 +2475,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B39" s="3">
@@ -2487,7 +2489,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="3">
@@ -2501,7 +2503,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B41" s="3">
@@ -2515,7 +2517,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B42" s="3">
@@ -2529,7 +2531,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B43" s="3">
@@ -2543,35 +2545,35 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="3">
         <v>1525728</v>
       </c>
       <c r="C44" s="3">
-        <v>56305</v>
+        <v>56505</v>
       </c>
       <c r="D44" s="3">
         <v>45247</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="3">
         <v>402179</v>
       </c>
       <c r="C45" s="3">
-        <v>17882</v>
+        <v>17382</v>
       </c>
       <c r="D45" s="3">
         <v>13860</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="3">
@@ -2585,7 +2587,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="3">
@@ -2599,7 +2601,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="3">
@@ -2613,7 +2615,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="3">
@@ -2627,7 +2629,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B50" s="3">
@@ -2641,7 +2643,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="3">
@@ -2655,35 +2657,35 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="3">
         <v>3091263</v>
       </c>
       <c r="C52" s="3">
-        <v>185039</v>
+        <v>185939</v>
       </c>
       <c r="D52" s="3">
         <v>104614</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B53" s="3">
         <v>791933</v>
       </c>
       <c r="C53" s="3">
-        <v>30012</v>
+        <v>36012</v>
       </c>
       <c r="D53" s="3">
         <v>23940</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B54" s="3">
@@ -2697,7 +2699,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="3">
@@ -2711,7 +2713,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="3">
@@ -2725,7 +2727,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="3">
@@ -2739,7 +2741,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B58" s="3">
@@ -2753,7 +2755,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B59" s="3">
@@ -2767,7 +2769,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B60" s="3">
@@ -2781,7 +2783,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B61" s="3">
@@ -2795,7 +2797,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="3">
@@ -2809,7 +2811,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B63" s="3">
@@ -2823,7 +2825,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B64" s="3">
@@ -2837,7 +2839,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="3">
@@ -2851,7 +2853,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B66" s="3">
@@ -2865,7 +2867,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B67" s="3">
@@ -2879,7 +2881,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="3">
@@ -2893,7 +2895,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B69" s="3">
@@ -2907,21 +2909,21 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B70" s="3">
         <v>76620616</v>
       </c>
       <c r="C70" s="3">
-        <v>689161</v>
+        <v>3689161</v>
       </c>
       <c r="D70" s="3">
         <v>2817028</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B71" s="3">
@@ -2935,7 +2937,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B72" s="3">
@@ -2949,7 +2951,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B73" s="3">
@@ -2963,7 +2965,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B74" s="3">
@@ -2977,7 +2979,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B75" s="3">
@@ -2991,21 +2993,21 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B76" s="3">
         <v>921864</v>
       </c>
       <c r="C76" s="3">
-        <v>26507</v>
+        <v>25507</v>
       </c>
       <c r="D76" s="3">
         <v>15696</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B77" s="3">
@@ -3019,21 +3021,21 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B78" s="3">
         <v>2165493</v>
       </c>
       <c r="C78" s="3">
-        <v>125834</v>
+        <v>125884</v>
       </c>
       <c r="D78" s="3">
         <v>69245</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B79" s="3">
@@ -3047,7 +3049,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B80" s="3">
@@ -3061,7 +3063,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B81" s="3">
@@ -3075,7 +3077,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B82" s="3">
@@ -3089,7 +3091,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B83" s="3">
@@ -3103,7 +3105,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B84" s="3">
@@ -3117,7 +3119,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B85" s="3">
@@ -3131,7 +3133,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B86" s="3">
@@ -3145,7 +3147,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B87" s="3">
@@ -3159,7 +3161,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B88" s="3">
@@ -3173,7 +3175,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B89" s="3">
@@ -3187,7 +3189,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B90" s="3">
@@ -3201,7 +3203,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B91" s="3">
@@ -3215,7 +3217,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B92" s="3">
@@ -3229,7 +3231,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B93" s="3">
@@ -3243,7 +3245,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B94" s="3">
@@ -3257,7 +3259,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B95" s="3">
@@ -3271,7 +3273,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B96" s="3">
@@ -3285,7 +3287,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B97" s="3">
@@ -3299,7 +3301,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B98" s="3">
@@ -3313,7 +3315,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B99" s="3">
@@ -3327,7 +3329,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B100" s="3">
@@ -3341,7 +3343,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B101" s="3">
@@ -3355,7 +3357,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B102" s="3">
@@ -3369,7 +3371,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B103" s="3">
@@ -3383,7 +3385,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B104" s="3">
@@ -3397,7 +3399,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B105" s="3">
@@ -3411,7 +3413,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B106" s="3">
@@ -3425,14 +3427,14 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B107" s="3">
         <v>143798185</v>
       </c>
       <c r="C107" s="3">
-        <v>6822613</v>
+        <v>6322613</v>
       </c>
       <c r="D107" s="3">
         <v>3865381</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1903.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1903.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDCA796-92F5-46C9-AE8C-2E05EBD4EADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D970DF6-6981-4379-8CFB-C4941D776601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="1350" windowWidth="18495" windowHeight="22125" activeTab="1" xr2:uid="{8C363053-6920-4926-BDFA-AB7886F0B449}"/>
+    <workbookView xWindow="19215" yWindow="0" windowWidth="18315" windowHeight="23580" activeTab="1" xr2:uid="{8C363053-6920-4926-BDFA-AB7886F0B449}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,9 +397,6 @@
     <t>Дагестанская</t>
   </si>
   <si>
-    <t xml:space="preserve">Елисаветпольскаа </t>
-  </si>
-  <si>
     <t xml:space="preserve">Карсская </t>
   </si>
   <si>
@@ -503,6 +500,9 @@
   </si>
   <si>
     <t>Келецкая</t>
+  </si>
+  <si>
+    <t>Елисаветпольская</t>
   </si>
 </sst>
 </file>
@@ -1931,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127F712A-7A6A-48CE-8991-7582978E471A}">
   <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" s="3">
         <v>24988319</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="3">
         <v>997057</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="3">
         <v>1885600</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="B76" s="3">
         <v>921864</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B77" s="3">
         <v>304193</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78" s="3">
         <v>2165493</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B79" s="3">
         <v>854245</v>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B80" s="3">
         <v>1024079</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B81" s="3">
         <v>980924</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B82" s="3">
         <v>994575</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B83" s="3">
         <v>93864</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B84" s="3">
         <v>816900</v>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B85" s="3">
         <v>9983469</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B86" s="3">
         <v>124271</v>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B87" s="3">
         <v>721218</v>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B88" s="3">
         <v>670102</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B89" s="3">
         <v>574936</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B90" s="3">
         <v>330204</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B91" s="3">
         <v>1653515</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B92" s="3">
         <v>2346222</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B93" s="3">
         <v>271651</v>
@@ -3246,21 +3246,21 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B94" s="3">
         <v>36695</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B95" s="3">
         <v>6730814</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B96" s="3">
         <v>832517</v>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B97" s="3">
         <v>409097</v>
@@ -3302,21 +3302,21 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B98" s="3">
         <v>986554</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B99" s="3">
         <v>786963</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B100" s="3">
         <v>1019634</v>
@@ -3344,21 +3344,21 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B101" s="3">
         <v>1628324</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B102" s="3">
         <v>534898</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B103" s="3">
         <v>719320</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B104" s="3">
         <v>1761202</v>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B105" s="3">
         <v>8678509</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B106" s="3">
         <v>25392792</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B107" s="3">
         <v>143798185</v>
